--- a/Click Train Tuning/ClickTrain_Perception_Config.xlsx
+++ b/Click Train Tuning/ClickTrain_Perception_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680795F1-4EC0-496D-9869-C47A56C56555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91870AE-C7EC-4525-9C83-FA8A7FF62EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,74 @@
   </si>
   <si>
     <t>RLA_Perception_Grad_Dur300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JitterMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repRatioHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repRatioTail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/04/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perception_Jitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Perception_Jitter_Dur300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,10;5,5;20,20;20,30;35,35;40,50;50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvenOdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Perception_Jitter_Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Perception_Grad_Dur300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -714,26 +782,29 @@
     <col min="13" max="13" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" style="7" customWidth="1"/>
     <col min="15" max="15" width="15.88671875" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14" style="7" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" style="13" customWidth="1"/>
-    <col min="20" max="20" width="19.109375" style="11" customWidth="1"/>
-    <col min="21" max="21" width="17.109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="21.109375" style="13" customWidth="1"/>
-    <col min="24" max="24" width="12.77734375" style="11" customWidth="1"/>
-    <col min="25" max="25" width="8.109375" style="6" customWidth="1"/>
-    <col min="26" max="26" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.109375" customWidth="1"/>
-    <col min="32" max="32" width="29.6640625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="49.109375" style="7" customWidth="1"/>
+    <col min="17" max="18" width="15.88671875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="14" style="7" customWidth="1"/>
+    <col min="22" max="22" width="14.21875" style="13" customWidth="1"/>
+    <col min="23" max="24" width="14.21875" style="7" customWidth="1"/>
+    <col min="25" max="25" width="19.109375" style="11" customWidth="1"/>
+    <col min="26" max="26" width="17.109375" style="7" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" style="7" customWidth="1"/>
+    <col min="28" max="28" width="21.109375" style="13" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" style="11" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" style="6" customWidth="1"/>
+    <col min="31" max="31" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.109375" customWidth="1"/>
+    <col min="37" max="37" width="29.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -780,58 +851,73 @@
         <v>58</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="W1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -877,59 +963,74 @@
       <c r="O2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
+      <c r="P2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="AB2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AK2" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -972,28 +1073,28 @@
       <c r="N3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="17"/>
-      <c r="AD3" t="s">
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="17"/>
+      <c r="AI3" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="16" t="s">
+      <c r="AK3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>101.1</v>
       </c>
@@ -1036,28 +1137,28 @@
       <c r="N4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="V4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="17"/>
-      <c r="AD4" t="s">
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="17"/>
+      <c r="AI4" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AK4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>102</v>
       </c>
@@ -1100,28 +1201,28 @@
       <c r="O5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="V5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="17"/>
-      <c r="AD5" t="s">
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="17"/>
+      <c r="AI5" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="16" t="s">
+      <c r="AK5" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>102.1</v>
       </c>
@@ -1164,168 +1265,298 @@
       <c r="O6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="V6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="17"/>
-      <c r="AD6" t="s">
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="17"/>
+      <c r="AI6" t="s">
         <v>14</v>
       </c>
-      <c r="AF6" s="16" t="s">
+      <c r="AK6" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="H14" s="30"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="17"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>102.2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="17"/>
+      <c r="AI7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>103</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK8" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="30"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="17"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="17"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="30"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="17"/>
-    </row>
-    <row r="17" spans="1:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="17"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="30"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="17"/>
-    </row>
-    <row r="22" spans="1:32" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="22"/>
-      <c r="AF22" s="25"/>
-    </row>
-    <row r="42" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:25" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="H57" s="30"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="17"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="17"/>
+    </row>
+    <row r="18" spans="1:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="H18" s="30"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="17"/>
+    </row>
+    <row r="23" spans="1:37" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="22"/>
+      <c r="AK23" s="25"/>
+    </row>
+    <row r="43" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="4:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="4:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D58" s="17"/>
       <c r="F58" s="17"/>
       <c r="H58" s="30"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="17"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="17"/>
+    </row>
+    <row r="59" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D59" s="17"/>
       <c r="F59" s="17"/>
       <c r="H59" s="30"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="17"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="17"/>
+    </row>
+    <row r="60" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D60" s="17"/>
       <c r="F60" s="17"/>
       <c r="H60" s="30"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="17"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="17"/>
+    </row>
+    <row r="61" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D61" s="17"/>
       <c r="F61" s="17"/>
       <c r="H61" s="30"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="17"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="17"/>
+    </row>
+    <row r="62" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D62" s="17"/>
       <c r="F62" s="17"/>
       <c r="H62" s="30"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="17"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="17"/>
+    </row>
+    <row r="63" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D63" s="17"/>
       <c r="F63" s="17"/>
       <c r="H63" s="30"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="17"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="C64" s="26"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="17"/>
+    </row>
+    <row r="64" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D64" s="17"/>
       <c r="F64" s="17"/>
       <c r="H64" s="30"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="17"/>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="17"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="H65" s="30"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Click Train Tuning/ClickTrain_Perception_Config.xlsx
+++ b/Click Train Tuning/ClickTrain_Perception_Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91870AE-C7EC-4525-9C83-FA8A7FF62EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AFD2CF-59CC-4E82-A0FD-4E3B812A89F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="87">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,14 @@
   </si>
   <si>
     <t>RNP_Perception_Grad_Dur300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,10;10,10;30,30;30,40;50,50;50,60;70,70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,51 +768,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK65"/>
+  <dimension ref="A1:AK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="13" customWidth="1"/>
-    <col min="16" max="16" width="49.109375" style="7" customWidth="1"/>
-    <col min="17" max="18" width="15.88671875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="49.125" style="7" customWidth="1"/>
+    <col min="17" max="18" width="15.875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="7" customWidth="1"/>
     <col min="21" max="21" width="14" style="7" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" style="13" customWidth="1"/>
-    <col min="23" max="24" width="14.21875" style="7" customWidth="1"/>
-    <col min="25" max="25" width="19.109375" style="11" customWidth="1"/>
-    <col min="26" max="26" width="17.109375" style="7" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" style="7" customWidth="1"/>
-    <col min="28" max="28" width="21.109375" style="13" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" style="11" customWidth="1"/>
-    <col min="30" max="30" width="8.109375" style="6" customWidth="1"/>
-    <col min="31" max="31" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.25" style="13" customWidth="1"/>
+    <col min="23" max="24" width="14.25" style="7" customWidth="1"/>
+    <col min="25" max="25" width="19.125" style="11" customWidth="1"/>
+    <col min="26" max="26" width="17.125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="21.125" style="13" customWidth="1"/>
+    <col min="29" max="29" width="12.75" style="11" customWidth="1"/>
+    <col min="30" max="30" width="8.125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="20.375" style="6" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.109375" customWidth="1"/>
-    <col min="37" max="37" width="29.6640625" style="16" customWidth="1"/>
+    <col min="33" max="33" width="8.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.125" customWidth="1"/>
+    <col min="37" max="37" width="29.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -917,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>101.1</v>
       </c>
@@ -1158,7 +1166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>102</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>102.1</v>
       </c>
@@ -1286,7 +1294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>102.2</v>
       </c>
@@ -1350,24 +1358,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>103</v>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>102.3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="26">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8">
         <v>97656</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>9</v>
@@ -1379,184 +1387,314 @@
         <v>65</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="17"/>
+      <c r="AI8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK8" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>103</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI9" t="s">
         <v>82</v>
       </c>
-      <c r="AK8" s="16" t="s">
+      <c r="AK9" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>103.1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK10" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="H15" s="30"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="17"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="30"/>
       <c r="AC16" s="27"/>
       <c r="AD16" s="17"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="30"/>
       <c r="AC17" s="27"/>
       <c r="AD17" s="17"/>
     </row>
-    <row r="18" spans="1:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="30"/>
       <c r="AC18" s="27"/>
       <c r="AD18" s="17"/>
     </row>
-    <row r="23" spans="1:37" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="22"/>
-      <c r="AK23" s="25"/>
-    </row>
-    <row r="43" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="4:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="4:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="4:30" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="H58" s="30"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="17"/>
-    </row>
-    <row r="59" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="30"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="17"/>
+    </row>
+    <row r="24" spans="1:37" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="22"/>
+      <c r="AK24" s="25"/>
+    </row>
+    <row r="44" ht="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="4:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="4:30" ht="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="4:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="4:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="4:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="4:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="4:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="4:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="4:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D59" s="17"/>
       <c r="F59" s="17"/>
       <c r="H59" s="30"/>
       <c r="AC59" s="27"/>
       <c r="AD59" s="17"/>
     </row>
-    <row r="60" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D60" s="17"/>
       <c r="F60" s="17"/>
       <c r="H60" s="30"/>
       <c r="AC60" s="27"/>
       <c r="AD60" s="17"/>
     </row>
-    <row r="61" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D61" s="17"/>
       <c r="F61" s="17"/>
       <c r="H61" s="30"/>
       <c r="AC61" s="27"/>
       <c r="AD61" s="17"/>
     </row>
-    <row r="62" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D62" s="17"/>
       <c r="F62" s="17"/>
       <c r="H62" s="30"/>
       <c r="AC62" s="27"/>
       <c r="AD62" s="17"/>
     </row>
-    <row r="63" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D63" s="17"/>
       <c r="F63" s="17"/>
       <c r="H63" s="30"/>
       <c r="AC63" s="27"/>
       <c r="AD63" s="17"/>
     </row>
-    <row r="64" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D64" s="17"/>
       <c r="F64" s="17"/>
       <c r="H64" s="30"/>
       <c r="AC64" s="27"/>
       <c r="AD64" s="17"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="C65" s="26"/>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D65" s="17"/>
       <c r="F65" s="17"/>
       <c r="H65" s="30"/>
       <c r="AC65" s="27"/>
       <c r="AD65" s="17"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="H66" s="30"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Click Train Tuning/ClickTrain_Perception_Config.xlsx
+++ b/Click Train Tuning/ClickTrain_Perception_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AFD2CF-59CC-4E82-A0FD-4E3B812A89F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365F1328-81EF-4738-B67E-A0C53F2C94E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,22 @@
   </si>
   <si>
     <t>0,0;0,10;10,10;30,30;30,40;50,50;50,60;70,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/05/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Perception_Grad_Dur200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_Perception_Jitter_Dur200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,6 +1570,136 @@
         <v>83</v>
       </c>
     </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>104</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="8">
+        <v>97656</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="17"/>
+      <c r="AI11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK11" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>

--- a/Click Train Tuning/ClickTrain_Perception_Config.xlsx
+++ b/Click Train Tuning/ClickTrain_Perception_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365F1328-81EF-4738-B67E-A0C53F2C94E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6245E4EC-5CD0-49C2-85E4-37CAE5FAFCF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="99">
   <si>
     <t>Amp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,38 @@
   </si>
   <si>
     <t>RNP_Perception_Jitter_Dur200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_TB_HighOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1700,6 +1732,66 @@
         <v>83</v>
       </c>
     </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="26">
+        <v>97656</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK13" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
